--- a/examples/sources/data/unsolved/to_schedule/2019-03-12.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-03-12.xlsx
@@ -3868,7 +3868,7 @@
         <v>1</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68" s="2">
         <v>43536</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="M75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -4428,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O81" s="2">
         <v>43536</v>
@@ -5563,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="M107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -5821,7 +5821,7 @@
         <v>1</v>
       </c>
       <c r="N113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O113" s="2">
         <v>43536</v>
@@ -5903,7 +5903,7 @@
         <v>1</v>
       </c>
       <c r="N115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O115" s="2">
         <v>43536</v>
@@ -5941,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N116">
         <v>1</v>
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="M117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N117">
         <v>1</v>
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="N119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O119" s="2">
         <v>43536</v>
@@ -6105,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="M120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N120">
         <v>1</v>
@@ -6149,7 +6149,7 @@
         <v>1</v>
       </c>
       <c r="N121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O121" s="2">
         <v>43536</v>
@@ -6187,7 +6187,7 @@
         <v>0</v>
       </c>
       <c r="M122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N122">
         <v>1</v>
@@ -6228,7 +6228,7 @@
         <v>0</v>
       </c>
       <c r="M123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -6269,7 +6269,7 @@
         <v>0</v>
       </c>
       <c r="M124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N124">
         <v>1</v>
@@ -6515,7 +6515,7 @@
         <v>0</v>
       </c>
       <c r="M130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N130">
         <v>1</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="M137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N137">
         <v>1</v>
@@ -7297,7 +7297,7 @@
         <v>1</v>
       </c>
       <c r="N149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O149" s="2">
         <v>43536</v>
@@ -7634,7 +7634,7 @@
         <v>1</v>
       </c>
       <c r="N157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O157" s="2">
         <v>43536</v>
@@ -7939,7 +7939,7 @@
         <v>1</v>
       </c>
       <c r="N164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O164" s="2">
         <v>43536</v>
@@ -7980,7 +7980,7 @@
         <v>1</v>
       </c>
       <c r="N165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O165" s="2">
         <v>43536</v>
@@ -8469,7 +8469,7 @@
         <v>0</v>
       </c>
       <c r="M177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N177">
         <v>1</v>
@@ -8991,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="N189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O189" s="2">
         <v>43536</v>
@@ -9032,7 +9032,7 @@
         <v>1</v>
       </c>
       <c r="N190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O190" s="2">
         <v>43536</v>
@@ -9152,7 +9152,7 @@
         <v>0</v>
       </c>
       <c r="M193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N193">
         <v>1</v>
@@ -9401,7 +9401,7 @@
         <v>1</v>
       </c>
       <c r="N199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O199" s="2">
         <v>43536</v>
@@ -10040,7 +10040,7 @@
         <v>0</v>
       </c>
       <c r="M214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N214">
         <v>1</v>
@@ -10122,7 +10122,7 @@
         <v>0</v>
       </c>
       <c r="M216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N216">
         <v>1</v>
@@ -10166,7 +10166,7 @@
         <v>1</v>
       </c>
       <c r="N217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O217" s="2">
         <v>43536</v>
@@ -10207,7 +10207,7 @@
         <v>1</v>
       </c>
       <c r="N218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O218" s="2">
         <v>43536</v>
@@ -10248,7 +10248,7 @@
         <v>1</v>
       </c>
       <c r="N219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O219" s="2">
         <v>43536</v>
@@ -10286,7 +10286,7 @@
         <v>0</v>
       </c>
       <c r="M220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N220">
         <v>1</v>
@@ -10327,7 +10327,7 @@
         <v>0</v>
       </c>
       <c r="M221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N221">
         <v>1</v>
@@ -10368,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="M222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N222">
         <v>1</v>
@@ -10409,7 +10409,7 @@
         <v>0</v>
       </c>
       <c r="M223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N223">
         <v>1</v>
